--- a/traveler_problem/comparition/result_ant_colony.xlsx
+++ b/traveler_problem/comparition/result_ant_colony.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>630.4229854187023</v>
+        <v>625.4787726314373</v>
       </c>
       <c r="C2" t="n">
-        <v>55.11491060000117</v>
+        <v>121.4770704999974</v>
       </c>
       <c r="D2" t="n">
-        <v>85</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>636.9348954928579</v>
+        <v>630.6716982467478</v>
       </c>
       <c r="C3" t="n">
-        <v>58.81455570000253</v>
+        <v>126.6568038999976</v>
       </c>
       <c r="D3" t="n">
-        <v>349</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>644.1345055025716</v>
+        <v>626.5576609854355</v>
       </c>
       <c r="C4" t="n">
-        <v>51.9495253999994</v>
+        <v>123.2685595000003</v>
       </c>
       <c r="D4" t="n">
-        <v>319</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>639.3549995955409</v>
+        <v>624.518638621542</v>
       </c>
       <c r="C5" t="n">
-        <v>50.90422020000551</v>
+        <v>126.2998595999961</v>
       </c>
       <c r="D5" t="n">
-        <v>73</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>628.9513135227246</v>
+        <v>633.0487752254769</v>
       </c>
       <c r="C6" t="n">
-        <v>45.35576420000143</v>
+        <v>121.4833405000027</v>
       </c>
       <c r="D6" t="n">
-        <v>511</v>
+        <v>683</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>649.6442118384819</v>
+        <v>630.7074093634146</v>
       </c>
       <c r="C7" t="n">
-        <v>50.18562029999885</v>
+        <v>126.0936311999976</v>
       </c>
       <c r="D7" t="n">
-        <v>463</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>644.4570343969933</v>
+        <v>624.2639058189992</v>
       </c>
       <c r="C8" t="n">
-        <v>53.21623750000435</v>
+        <v>122.6533187000023</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>650.4004635779052</v>
+        <v>624.514021673994</v>
       </c>
       <c r="C9" t="n">
-        <v>48.75427240000135</v>
+        <v>126.0858691999965</v>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>628.2976677262817</v>
+        <v>630.0705193163872</v>
       </c>
       <c r="C10" t="n">
-        <v>47.67824329999712</v>
+        <v>119.0335214000006</v>
       </c>
       <c r="D10" t="n">
-        <v>61</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632.7813056453017</v>
+        <v>633.162446288678</v>
       </c>
       <c r="C11" t="n">
-        <v>46.57906399999774</v>
+        <v>119.0443979999982</v>
       </c>
       <c r="D11" t="n">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>634.0790821797963</v>
+        <v>636.6039387241664</v>
       </c>
       <c r="C12" t="n">
-        <v>52.84692860000359</v>
+        <v>118.7581525999994</v>
       </c>
       <c r="D12" t="n">
-        <v>114</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>639.3232704789447</v>
+        <v>629.1635441405026</v>
       </c>
       <c r="C13" t="n">
-        <v>48.36144429999695</v>
+        <v>118.3765131999971</v>
       </c>
       <c r="D13" t="n">
-        <v>494</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>637.6191255055517</v>
+        <v>631.1694428863617</v>
       </c>
       <c r="C14" t="n">
-        <v>49.00100350000139</v>
+        <v>119.5245967999945</v>
       </c>
       <c r="D14" t="n">
-        <v>190</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>630.0296512065221</v>
+        <v>624.9506166283194</v>
       </c>
       <c r="C15" t="n">
-        <v>47.22813219999807</v>
+        <v>118.6116684000008</v>
       </c>
       <c r="D15" t="n">
-        <v>430</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>644.9922512254675</v>
+        <v>636.4730849123674</v>
       </c>
       <c r="C16" t="n">
-        <v>46.56362520000403</v>
+        <v>119.3093404999963</v>
       </c>
       <c r="D16" t="n">
-        <v>51</v>
+        <v>784</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>624.4759329341966</v>
+        <v>631.4437516152318</v>
       </c>
       <c r="C17" t="n">
-        <v>44.31176109999797</v>
+        <v>118.4505033999958</v>
       </c>
       <c r="D17" t="n">
-        <v>448</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>632.5261424403253</v>
+        <v>625.0718783596323</v>
       </c>
       <c r="C18" t="n">
-        <v>55.21440270000312</v>
+        <v>77.35109910000028</v>
       </c>
       <c r="D18" t="n">
-        <v>56</v>
+        <v>752</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>647.610947602627</v>
+        <v>625.7994692908779</v>
       </c>
       <c r="C19" t="n">
-        <v>44.51810839999962</v>
+        <v>76.87513600000239</v>
       </c>
       <c r="D19" t="n">
-        <v>425</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>630.5474679828161</v>
+        <v>628.2892868796804</v>
       </c>
       <c r="C20" t="n">
-        <v>45.37224129999959</v>
+        <v>76.99812599999859</v>
       </c>
       <c r="D20" t="n">
-        <v>208</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>629.686168764581</v>
+        <v>629.1005218132419</v>
       </c>
       <c r="C21" t="n">
-        <v>50.03919470000255</v>
+        <v>76.95079229999828</v>
       </c>
       <c r="D21" t="n">
-        <v>151</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
